--- a/biology/Médecine/Berthe_Kolochine-Erber/Berthe_Kolochine-Erber.xlsx
+++ b/biology/Médecine/Berthe_Kolochine-Erber/Berthe_Kolochine-Erber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Berthe Kolochine-Erber, née à Romainville le 28 décembre 1890 et morte à Paris (15e arrondissement) le 10 juin 1968, est une bactériologiste française[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Berthe Kolochine-Erber, née à Romainville le 28 décembre 1890 et morte à Paris (15e arrondissement) le 10 juin 1968, est une bactériologiste française.
 Chef de laboratoire à l'Institut Pasteur, elle travaille pendant plus de cinquante ans sur l'immunité, le sérum antipoliomyélitique et surtout la leptospirose, dont elle devient une spécialiste mondialement reconnue.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Berthe Pauline Erber[a] naît le 28 décembre 1890 à Romainville[2] Elle est enfant unique de François Erber (Saint-Avold, 1864 - Paris-10e arrondissement, 1925[3]), tourneur sur cuivre, et de Marie Sauval (Paris-3e arrondissement, 1866[4] - Paris-15e arrondissement, 1930[5]), couturière.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Berthe Pauline Erber[a] naît le 28 décembre 1890 à Romainville Elle est enfant unique de François Erber (Saint-Avold, 1864 - Paris-10e arrondissement, 1925), tourneur sur cuivre, et de Marie Sauval (Paris-3e arrondissement, 1866 - Paris-15e arrondissement, 1930), couturière.
 Titulaire d'une licence ès-sciences et professeur d'enseignement secondaire, elle entre à l'Institut Pasteur 1er septembre 1916 comme « préparatrice » dans le service de sérologie, de microbiologie et d'hygiène expérimentale de Louis Martin. En 1919, elle rejoint l'équipe d'Auguste Pettit
 [b], où elle sera successivement « assistante » puis « chef de laboratoire ». Elle étudie les leptospires, collabore aux recherches de Georges Abt
 [c] sur le titrage par floculation des toxines et antitoxines tétaniques et diphtériques, ainsi qu'aux travaux d'Auguste  Pettit et Pierre Mollaret sur la poliomyélite.
@@ -526,13 +540,83 @@
 En 1958, elle est nommée « membre associé » du Sous-comité international de taxonomie pour les leptospires. Elle en deviendra  « conseiller » en 1966.
 En 1959, elle est promue « chef de service honoraire » à l'Institut Pasteur. Elle fait valoir ses droits à la retraite mais poursuit ses travaux. Au Maroc, elle entreprend un vaste programme de recherches sur les leptospiroses humaines et animales.
 En 1960, elle présente à Madrid, au 4e Congrès international de pathologie clinique, un article sur les leptospiroses porcines en France et leur incidence en médecine humaine et vétérinaire.
-Elle décède à Paris d'un malaise cardiaque le 10 juin 1968[6]. 
-Vie privée
-Le 18 septembre 1937[7], elle épouse à Paris (15e arrondissement) Constantin Kolochine[d] (Krivtsevaïa, oblast d'Orel, 1882 - Neuilly-sur-Marne, 1951[e],[8], alors « préparateur » à l'Institut Pasteur ; il sera par la suite docteur en médecine[9]. Le couple n'a pas d'enfants.
+Elle décède à Paris d'un malaise cardiaque le 10 juin 1968. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Berthe_Kolochine-Erber</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Berthe_Kolochine-Erber</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 18 septembre 1937, elle épouse à Paris (15e arrondissement) Constantin Kolochine[d] (Krivtsevaïa, oblast d'Orel, 1882 - Neuilly-sur-Marne, 1951[e] alors « préparateur » à l'Institut Pasteur ; il sera par la suite docteur en médecine. Le couple n'a pas d'enfants.
 À Paris, elle demeure 3 rue Bargue des années 1920 jusqu'à son décès. Elle possède une résidence secondaire à Fravaux[f], dans l'Aube, où elle passe ses étés.
 Elle repose au cimetière ancien de Romainville (division 32), auprès de ses parents et de son époux.
-Distinctions
-Le 12 janvier 1931, le ministère de la Santé publique lui décerne la médaille d'honneur des épidémies, en bronze, pour son dévouement exceptionnel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Berthe_Kolochine-Erber</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Berthe_Kolochine-Erber</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 12 janvier 1931, le ministère de la Santé publique lui décerne la médaille d'honneur des épidémies, en bronze, pour son dévouement exceptionnel.
 En 1933, elle obtient le Prix Bouchard de la Société de biologie.
 Par décret du 11 juillet 1947, elle est nommée chevalier dans l'Ordre national de la Légion d'honneur en récompense de trente ans d'activités civiles et d'une cinquantaine de publications scientifiques.
 En 1926, elle reçoit les palmes académiques.
@@ -540,31 +624,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Berthe_Kolochine-Erber</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Berthe_Kolochine-Erber</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Berthe Kolochine-Erber publie une cinquantaine d'ouvrages sur  l'immunité, le sérum antipoliomyélitique et la leptospirose. On retient :
 « La spirochétose ictéro-hémorragique en France, regroupant 10 années d'observations de 1923 à 1932 » (Bulletin mensuel de l'Office international d'hygiène publique, 1934) ;
@@ -575,34 +661,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Berthe_Kolochine-Erber</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Berthe_Kolochine-Erber</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, Berthe Kolochine-Erber fait l'objet d'une conférence intitulée « Les femmes pasteuriennes : de la cuisine à la paillasse »[10].
-Le 25 septembre 2021, une plaque commémorative est inaugurée sur la façade de sa maison à Fravaux[11],[12].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, Berthe Kolochine-Erber fait l'objet d'une conférence intitulée « Les femmes pasteuriennes : de la cuisine à la paillasse ».
+Le 25 septembre 2021, une plaque commémorative est inaugurée sur la façade de sa maison à Fravaux,.
 </t>
         </is>
       </c>
